--- a/projects/test_building/input/Scenario_EnergyCarrier_Price_TaxRate.xlsx
+++ b/projects/test_building/input/Scenario_EnergyCarrier_Price_TaxRate.xlsx
@@ -3,13 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7DE4BE-C280-9242-B3BA-4F610560812B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49275DF3-1EA4-C940-A405-BCAD51E4279E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6880" yWindow="-21100" windowWidth="30240" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>id_energy_carrier</t>
   </si>
@@ -129,12 +128,6 @@
   </si>
   <si>
     <t>id_scenario</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>default tax rate</t>
   </si>
 </sst>
 </file>
@@ -598,7 +591,7 @@
   <dimension ref="A1:AJ9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1605,38 +1598,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="77" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/projects/test_building/input/Scenario_EnergyCarrier_Price_TaxRate.xlsx
+++ b/projects/test_building/input/Scenario_EnergyCarrier_Price_TaxRate.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49275DF3-1EA4-C940-A405-BCAD51E4279E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C90D684-C5DA-3D40-BB9A-73434AB8DE00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="700" yWindow="4040" windowWidth="30240" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -281,8 +281,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:AJ9" totalsRowShown="0">
-  <autoFilter ref="A1:AJ9" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:AJ13" totalsRowShown="0">
+  <autoFilter ref="A1:AJ13" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="36">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id_scenario"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="id_region"/>
@@ -588,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ9"/>
+  <dimension ref="A1:AJ13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="AG18" sqref="AG18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -940,7 +940,7 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1050,7 +1050,7 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1160,7 +1160,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1270,7 +1270,7 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1380,7 +1380,7 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1490,105 +1490,545 @@
         <v>9</v>
       </c>
       <c r="C9">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U9" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V9" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W9" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X9" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U10" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V10" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W10" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X10" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ10" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R11" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S11" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U11" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V11" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W11" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X11" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH11" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI11" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ11" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12">
         <v>25</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="N9" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="O9" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="P9" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="R9" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="S9" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="T9" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="U9" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="V9" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="W9" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="X9" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="Y9" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="Z9" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="AA9" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="AB9" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="AC9" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="AD9" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="AE9" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="AF9" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="AG9" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="AH9" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="AI9" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="AJ9" s="1">
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R12" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U12" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V12" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W12" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X12" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH12" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI12" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ12" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>26</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R13" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S13" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U13" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V13" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W13" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X13" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH13" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI13" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ13" s="1">
         <v>0.19</v>
       </c>
     </row>

--- a/projects/test_building/input/Scenario_EnergyCarrier_Price_TaxRate.xlsx
+++ b/projects/test_building/input/Scenario_EnergyCarrier_Price_TaxRate.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C90D684-C5DA-3D40-BB9A-73434AB8DE00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0807B309-B949-664F-B37E-BD6A01F93498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="4040" windowWidth="30240" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="980" yWindow="760" windowWidth="30240" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="note" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>id_energy_carrier</t>
   </si>
@@ -128,16 +129,52 @@
   </si>
   <si>
     <t>id_scenario</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>note: the values from 2010 to 2018 are copied from 2019 to hold the place</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -281,13 +318,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:AJ13" totalsRowShown="0">
-  <autoFilter ref="A1:AJ13" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:AS13" totalsRowShown="0">
+  <autoFilter ref="A1:AS13" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="45">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id_scenario"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="id_region"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="id_energy_carrier"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="unit"/>
+    <tableColumn id="38" xr3:uid="{C51FC23A-0E64-A146-A6D4-6F2B3A3B4511}" name="2010"/>
+    <tableColumn id="39" xr3:uid="{CBBF944D-2A28-E84F-8200-70F4F0CB5C4E}" name="2011"/>
+    <tableColumn id="40" xr3:uid="{C5A228A9-A5E3-D044-8C30-475C42EE51CF}" name="2012"/>
+    <tableColumn id="41" xr3:uid="{DDDB7F6A-877D-B745-A43D-E6793F22E91B}" name="2013"/>
+    <tableColumn id="42" xr3:uid="{7B20081C-0C4D-574E-9334-D318D6F3CB90}" name="2014"/>
+    <tableColumn id="43" xr3:uid="{D9C3B017-A1A1-4741-A6A1-1479333BBAFF}" name="2015"/>
+    <tableColumn id="44" xr3:uid="{BFB2F65D-625D-7B46-8995-D1C182576B64}" name="2016"/>
+    <tableColumn id="45" xr3:uid="{23CB6C9F-53EC-9741-AFA4-15F5DC4180E3}" name="2017"/>
+    <tableColumn id="46" xr3:uid="{FE93D927-9633-A441-BD89-0388E899F656}" name="2018"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="2019" dataDxfId="31"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="2020" dataDxfId="30"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="2021" dataDxfId="29"/>
@@ -588,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ13"/>
+  <dimension ref="A1:AS13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG18" sqref="AG18"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -600,9 +646,10 @@
     <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="18.6640625" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="13" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -616,103 +663,130 @@
         <v>33</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="F1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="P1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Q1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="R1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="S1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="T1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="U1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="V1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" t="s">
+      <c r="W1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" t="s">
+      <c r="X1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Y1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Z1" t="s">
         <v>13</v>
       </c>
-      <c r="R1" t="s">
+      <c r="AA1" t="s">
         <v>14</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AB1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AC1" t="s">
         <v>16</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AD1" t="s">
         <v>17</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AE1" t="s">
         <v>18</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AF1" t="s">
         <v>19</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AG1" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AH1" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AI1" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AJ1" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AK1" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AL1" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AM1" t="s">
         <v>26</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AN1" t="s">
         <v>27</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AO1" t="s">
         <v>28</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AP1" t="s">
         <v>29</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AQ1" t="s">
         <v>30</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AR1" t="s">
         <v>31</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AS1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -821,8 +895,35 @@
       <c r="AJ2" s="1">
         <v>0.19</v>
       </c>
+      <c r="AK2" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR2" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS2" s="1">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -931,8 +1032,35 @@
       <c r="AJ3" s="1">
         <v>0.19</v>
       </c>
+      <c r="AK3" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL3" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM3" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN3" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO3" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP3" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ3" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR3" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS3" s="1">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1041,8 +1169,35 @@
       <c r="AJ4" s="1">
         <v>0.19</v>
       </c>
+      <c r="AK4" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN4" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO4" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP4" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ4" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR4" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS4" s="1">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1151,8 +1306,35 @@
       <c r="AJ5" s="1">
         <v>0.19</v>
       </c>
+      <c r="AK5" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ5" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR5" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS5" s="1">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1261,8 +1443,35 @@
       <c r="AJ6" s="1">
         <v>0.19</v>
       </c>
+      <c r="AK6" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN6" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO6" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR6" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS6" s="1">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1371,8 +1580,35 @@
       <c r="AJ7" s="1">
         <v>0.19</v>
       </c>
+      <c r="AK7" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN7" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO7" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP7" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR7" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS7" s="1">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1481,8 +1717,35 @@
       <c r="AJ8" s="1">
         <v>0.19</v>
       </c>
+      <c r="AK8" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL8" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN8" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO8" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP8" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ8" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR8" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS8" s="1">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1591,8 +1854,35 @@
       <c r="AJ9" s="1">
         <v>0.19</v>
       </c>
+      <c r="AK9" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN9" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO9" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP9" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ9" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR9" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS9" s="1">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1701,8 +1991,35 @@
       <c r="AJ10" s="1">
         <v>0.19</v>
       </c>
+      <c r="AK10" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL10" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM10" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN10" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO10" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP10" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ10" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR10" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS10" s="1">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1811,8 +2128,35 @@
       <c r="AJ11" s="1">
         <v>0.19</v>
       </c>
+      <c r="AK11" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL11" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM11" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN11" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO11" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP11" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ11" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR11" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS11" s="1">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1921,8 +2265,35 @@
       <c r="AJ12" s="1">
         <v>0.19</v>
       </c>
+      <c r="AK12" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL12" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM12" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN12" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO12" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP12" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ12" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR12" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS12" s="1">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2031,11 +2402,57 @@
       <c r="AJ13" s="1">
         <v>0.19</v>
       </c>
+      <c r="AK13" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL13" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM13" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN13" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO13" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP13" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ13" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR13" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS13" s="1">
+        <v>0.19</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E8E658C-58A0-3A4D-95A5-39A2D91B45AB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/projects/test_building/input/Scenario_EnergyCarrier_Price_TaxRate.xlsx
+++ b/projects/test_building/input/Scenario_EnergyCarrier_Price_TaxRate.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0807B309-B949-664F-B37E-BD6A01F93498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4DA1B6-A6AC-2B4C-A802-3AD30B63C127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="980" yWindow="760" windowWidth="30240" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>id_energy_carrier</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>note: the values from 2010 to 2018 are copied from 2019 to hold the place</t>
+  </si>
+  <si>
+    <t>2051</t>
   </si>
 </sst>
 </file>
@@ -207,7 +210,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="33">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -318,9 +324,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:AS13" totalsRowShown="0">
-  <autoFilter ref="A1:AS13" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:AT13" totalsRowShown="0">
+  <autoFilter ref="A1:AT13" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="46">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id_scenario"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="id_region"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="id_energy_carrier"/>
@@ -334,38 +340,39 @@
     <tableColumn id="44" xr3:uid="{BFB2F65D-625D-7B46-8995-D1C182576B64}" name="2016"/>
     <tableColumn id="45" xr3:uid="{23CB6C9F-53EC-9741-AFA4-15F5DC4180E3}" name="2017"/>
     <tableColumn id="46" xr3:uid="{FE93D927-9633-A441-BD89-0388E899F656}" name="2018"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="2019" dataDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="2020" dataDxfId="30"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="2021" dataDxfId="29"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="2022" dataDxfId="28"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="2023" dataDxfId="27"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="2024" dataDxfId="26"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="2025" dataDxfId="25"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="2026" dataDxfId="24"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="2027" dataDxfId="23"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="2028" dataDxfId="22"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="2029" dataDxfId="21"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="2030" dataDxfId="20"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="2031" dataDxfId="19"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="2032" dataDxfId="18"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="2033" dataDxfId="17"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="2034" dataDxfId="16"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="2035" dataDxfId="15"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="2036" dataDxfId="14"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="2037" dataDxfId="13"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="2038" dataDxfId="12"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="2039" dataDxfId="11"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="2040" dataDxfId="10"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="2041" dataDxfId="9"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="2042" dataDxfId="8"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="2043" dataDxfId="7"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="2044" dataDxfId="6"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="2045" dataDxfId="5"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="2046" dataDxfId="4"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="2047" dataDxfId="3"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="2048" dataDxfId="2"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="2049" dataDxfId="1"/>
-    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="2050" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="2019" dataDxfId="32"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="2020" dataDxfId="31"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="2021" dataDxfId="30"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="2022" dataDxfId="29"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="2023" dataDxfId="28"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="2024" dataDxfId="27"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="2025" dataDxfId="26"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="2026" dataDxfId="25"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="2027" dataDxfId="24"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="2028" dataDxfId="23"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="2029" dataDxfId="22"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="2030" dataDxfId="21"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="2031" dataDxfId="20"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="2032" dataDxfId="19"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="2033" dataDxfId="18"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="2034" dataDxfId="17"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="2035" dataDxfId="16"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="2036" dataDxfId="15"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="2037" dataDxfId="14"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="2038" dataDxfId="13"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="2039" dataDxfId="12"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="2040" dataDxfId="11"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="2041" dataDxfId="10"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="2042" dataDxfId="9"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="2043" dataDxfId="8"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="2044" dataDxfId="7"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="2045" dataDxfId="6"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="2046" dataDxfId="5"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="2047" dataDxfId="4"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="2048" dataDxfId="3"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="2049" dataDxfId="2"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="2050" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{852D4B65-8297-7E40-8209-D953E30C112F}" name="2051" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -634,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS13"/>
+  <dimension ref="A1:AT13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
+      <selection activeCell="AT25" sqref="AT25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -649,7 +656,7 @@
     <col min="5" max="13" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -785,8 +792,11 @@
       <c r="AS1" t="s">
         <v>32</v>
       </c>
+      <c r="AT1" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -922,8 +932,11 @@
       <c r="AS2" s="1">
         <v>0.19</v>
       </c>
+      <c r="AT2" s="1">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="AS3" s="1">
         <v>0.19</v>
       </c>
+      <c r="AT3" s="1">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1196,8 +1212,11 @@
       <c r="AS4" s="1">
         <v>0.19</v>
       </c>
+      <c r="AT4" s="1">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1333,8 +1352,11 @@
       <c r="AS5" s="1">
         <v>0.19</v>
       </c>
+      <c r="AT5" s="1">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1470,8 +1492,11 @@
       <c r="AS6" s="1">
         <v>0.19</v>
       </c>
+      <c r="AT6" s="1">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1607,8 +1632,11 @@
       <c r="AS7" s="1">
         <v>0.19</v>
       </c>
+      <c r="AT7" s="1">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1744,8 +1772,11 @@
       <c r="AS8" s="1">
         <v>0.19</v>
       </c>
+      <c r="AT8" s="1">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1881,8 +1912,11 @@
       <c r="AS9" s="1">
         <v>0.19</v>
       </c>
+      <c r="AT9" s="1">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2018,8 +2052,11 @@
       <c r="AS10" s="1">
         <v>0.19</v>
       </c>
+      <c r="AT10" s="1">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2155,8 +2192,11 @@
       <c r="AS11" s="1">
         <v>0.19</v>
       </c>
+      <c r="AT11" s="1">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2292,8 +2332,11 @@
       <c r="AS12" s="1">
         <v>0.19</v>
       </c>
+      <c r="AT12" s="1">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2427,6 +2470,9 @@
         <v>0.19</v>
       </c>
       <c r="AS13" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT13" s="1">
         <v>0.19</v>
       </c>
     </row>

--- a/projects/test_building/input/Scenario_EnergyCarrier_Price_TaxRate.xlsx
+++ b/projects/test_building/input/Scenario_EnergyCarrier_Price_TaxRate.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4DA1B6-A6AC-2B4C-A802-3AD30B63C127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="760" windowWidth="30240" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="975" yWindow="765" windowWidth="30240" windowHeight="17385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>id_energy_carrier</t>
   </si>
@@ -162,12 +161,15 @@
   </si>
   <si>
     <t>2051</t>
+  </si>
+  <si>
+    <t>tax rates of electricity and gas are adjusted to reflect the end-consumer price when applied to wholesale prices</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -324,55 +326,55 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:AT13" totalsRowShown="0">
-  <autoFilter ref="A1:AT13" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:AT13" totalsRowShown="0">
+  <autoFilter ref="A1:AT13"/>
   <tableColumns count="46">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id_scenario"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="id_region"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="id_energy_carrier"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="unit"/>
-    <tableColumn id="38" xr3:uid="{C51FC23A-0E64-A146-A6D4-6F2B3A3B4511}" name="2010"/>
-    <tableColumn id="39" xr3:uid="{CBBF944D-2A28-E84F-8200-70F4F0CB5C4E}" name="2011"/>
-    <tableColumn id="40" xr3:uid="{C5A228A9-A5E3-D044-8C30-475C42EE51CF}" name="2012"/>
-    <tableColumn id="41" xr3:uid="{DDDB7F6A-877D-B745-A43D-E6793F22E91B}" name="2013"/>
-    <tableColumn id="42" xr3:uid="{7B20081C-0C4D-574E-9334-D318D6F3CB90}" name="2014"/>
-    <tableColumn id="43" xr3:uid="{D9C3B017-A1A1-4741-A6A1-1479333BBAFF}" name="2015"/>
-    <tableColumn id="44" xr3:uid="{BFB2F65D-625D-7B46-8995-D1C182576B64}" name="2016"/>
-    <tableColumn id="45" xr3:uid="{23CB6C9F-53EC-9741-AFA4-15F5DC4180E3}" name="2017"/>
-    <tableColumn id="46" xr3:uid="{FE93D927-9633-A441-BD89-0388E899F656}" name="2018"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="2019" dataDxfId="32"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="2020" dataDxfId="31"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="2021" dataDxfId="30"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="2022" dataDxfId="29"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="2023" dataDxfId="28"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="2024" dataDxfId="27"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="2025" dataDxfId="26"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="2026" dataDxfId="25"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="2027" dataDxfId="24"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="2028" dataDxfId="23"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="2029" dataDxfId="22"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="2030" dataDxfId="21"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="2031" dataDxfId="20"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="2032" dataDxfId="19"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="2033" dataDxfId="18"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="2034" dataDxfId="17"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="2035" dataDxfId="16"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="2036" dataDxfId="15"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="2037" dataDxfId="14"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="2038" dataDxfId="13"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="2039" dataDxfId="12"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="2040" dataDxfId="11"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="2041" dataDxfId="10"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="2042" dataDxfId="9"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="2043" dataDxfId="8"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="2044" dataDxfId="7"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="2045" dataDxfId="6"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="2046" dataDxfId="5"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="2047" dataDxfId="4"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="2048" dataDxfId="3"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="2049" dataDxfId="2"/>
-    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="2050" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{852D4B65-8297-7E40-8209-D953E30C112F}" name="2051" dataDxfId="0"/>
+    <tableColumn id="1" name="id_scenario"/>
+    <tableColumn id="2" name="id_region"/>
+    <tableColumn id="4" name="id_energy_carrier"/>
+    <tableColumn id="5" name="unit"/>
+    <tableColumn id="38" name="2010"/>
+    <tableColumn id="39" name="2011"/>
+    <tableColumn id="40" name="2012"/>
+    <tableColumn id="41" name="2013"/>
+    <tableColumn id="42" name="2014"/>
+    <tableColumn id="43" name="2015"/>
+    <tableColumn id="44" name="2016"/>
+    <tableColumn id="45" name="2017"/>
+    <tableColumn id="46" name="2018"/>
+    <tableColumn id="6" name="2019" dataDxfId="32"/>
+    <tableColumn id="7" name="2020" dataDxfId="31"/>
+    <tableColumn id="8" name="2021" dataDxfId="30"/>
+    <tableColumn id="9" name="2022" dataDxfId="29"/>
+    <tableColumn id="10" name="2023" dataDxfId="28"/>
+    <tableColumn id="11" name="2024" dataDxfId="27"/>
+    <tableColumn id="12" name="2025" dataDxfId="26"/>
+    <tableColumn id="13" name="2026" dataDxfId="25"/>
+    <tableColumn id="14" name="2027" dataDxfId="24"/>
+    <tableColumn id="15" name="2028" dataDxfId="23"/>
+    <tableColumn id="16" name="2029" dataDxfId="22"/>
+    <tableColumn id="17" name="2030" dataDxfId="21"/>
+    <tableColumn id="18" name="2031" dataDxfId="20"/>
+    <tableColumn id="19" name="2032" dataDxfId="19"/>
+    <tableColumn id="20" name="2033" dataDxfId="18"/>
+    <tableColumn id="21" name="2034" dataDxfId="17"/>
+    <tableColumn id="22" name="2035" dataDxfId="16"/>
+    <tableColumn id="23" name="2036" dataDxfId="15"/>
+    <tableColumn id="24" name="2037" dataDxfId="14"/>
+    <tableColumn id="25" name="2038" dataDxfId="13"/>
+    <tableColumn id="26" name="2039" dataDxfId="12"/>
+    <tableColumn id="27" name="2040" dataDxfId="11"/>
+    <tableColumn id="28" name="2041" dataDxfId="10"/>
+    <tableColumn id="29" name="2042" dataDxfId="9"/>
+    <tableColumn id="30" name="2043" dataDxfId="8"/>
+    <tableColumn id="31" name="2044" dataDxfId="7"/>
+    <tableColumn id="32" name="2045" dataDxfId="6"/>
+    <tableColumn id="33" name="2046" dataDxfId="5"/>
+    <tableColumn id="34" name="2047" dataDxfId="4"/>
+    <tableColumn id="35" name="2048" dataDxfId="3"/>
+    <tableColumn id="36" name="2049" dataDxfId="2"/>
+    <tableColumn id="37" name="2050" dataDxfId="1"/>
+    <tableColumn id="3" name="2051" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -640,23 +642,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
-      <selection activeCell="AT25" sqref="AT25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2:AT2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="13" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -796,7 +798,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -810,133 +812,133 @@
         <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>0.19</v>
+        <v>0.8</v>
       </c>
       <c r="F2" s="1">
-        <v>0.19</v>
+        <v>0.8</v>
       </c>
       <c r="G2" s="1">
-        <v>0.19</v>
+        <v>0.8</v>
       </c>
       <c r="H2" s="1">
-        <v>0.19</v>
+        <v>0.8</v>
       </c>
       <c r="I2" s="1">
-        <v>0.19</v>
+        <v>1.1444364539202254</v>
       </c>
       <c r="J2" s="1">
-        <v>0.19</v>
+        <v>1.1356409978754136</v>
       </c>
       <c r="K2" s="1">
-        <v>0.19</v>
+        <v>1.2133853622976085</v>
       </c>
       <c r="L2" s="1">
-        <v>0.19</v>
+        <v>1.2604630607229534</v>
       </c>
       <c r="M2" s="1">
-        <v>0.19</v>
+        <v>1.2585824851147556</v>
       </c>
       <c r="N2" s="1">
-        <v>0.19</v>
+        <v>1.274859304265954</v>
       </c>
       <c r="O2" s="1">
-        <v>0.19</v>
+        <v>1.2408626260781042</v>
       </c>
       <c r="P2" s="1">
-        <v>0.19</v>
+        <v>1.184444107475227</v>
       </c>
       <c r="Q2" s="1">
-        <v>0.19</v>
+        <v>0.58813774606029012</v>
       </c>
       <c r="R2" s="1">
-        <v>0.19</v>
+        <v>0.40111741786297822</v>
       </c>
       <c r="S2" s="1">
-        <v>0.19</v>
+        <v>0.4</v>
       </c>
       <c r="T2" s="1">
-        <v>0.19</v>
+        <v>0.42</v>
       </c>
       <c r="U2" s="1">
-        <v>0.19</v>
+        <v>0.45</v>
       </c>
       <c r="V2" s="1">
-        <v>0.19</v>
+        <v>0.48</v>
       </c>
       <c r="W2" s="1">
-        <v>0.19</v>
+        <v>0.5</v>
       </c>
       <c r="X2" s="1">
-        <v>0.19</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.19</v>
+        <v>0.6</v>
       </c>
       <c r="Z2" s="1">
-        <v>0.19</v>
+        <v>0.7</v>
       </c>
       <c r="AA2" s="1">
-        <v>0.19</v>
+        <v>0.7</v>
       </c>
       <c r="AB2" s="1">
-        <v>0.19</v>
+        <v>0.7</v>
       </c>
       <c r="AC2" s="1">
-        <v>0.19</v>
+        <v>0.7</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.19</v>
+        <v>0.7</v>
       </c>
       <c r="AE2" s="1">
-        <v>0.19</v>
+        <v>0.7</v>
       </c>
       <c r="AF2" s="1">
-        <v>0.19</v>
+        <v>0.7</v>
       </c>
       <c r="AG2" s="1">
-        <v>0.19</v>
+        <v>0.7</v>
       </c>
       <c r="AH2" s="1">
-        <v>0.19</v>
+        <v>0.7</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.19</v>
+        <v>0.7</v>
       </c>
       <c r="AJ2" s="1">
-        <v>0.19</v>
+        <v>0.7</v>
       </c>
       <c r="AK2" s="1">
-        <v>0.19</v>
+        <v>0.7</v>
       </c>
       <c r="AL2" s="1">
-        <v>0.19</v>
+        <v>0.7</v>
       </c>
       <c r="AM2" s="1">
-        <v>0.19</v>
+        <v>0.7</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.19</v>
+        <v>0.7</v>
       </c>
       <c r="AO2" s="1">
-        <v>0.19</v>
+        <v>0.7</v>
       </c>
       <c r="AP2" s="1">
-        <v>0.19</v>
+        <v>0.7</v>
       </c>
       <c r="AQ2" s="1">
-        <v>0.19</v>
+        <v>0.7</v>
       </c>
       <c r="AR2" s="1">
-        <v>0.19</v>
+        <v>0.7</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.19</v>
+        <v>0.7</v>
       </c>
       <c r="AT2" s="1">
-        <v>0.19</v>
+        <v>0.7</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1076,7 +1078,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1216,7 +1218,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1230,133 +1232,133 @@
         <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>0.19</v>
+        <v>0.33</v>
       </c>
       <c r="F5" s="1">
-        <v>0.19</v>
+        <v>0.33</v>
       </c>
       <c r="G5" s="1">
-        <v>0.19</v>
+        <v>0.33</v>
       </c>
       <c r="H5" s="1">
-        <v>0.19</v>
+        <v>0.33</v>
       </c>
       <c r="I5" s="1">
-        <v>0.19</v>
+        <v>0.33</v>
       </c>
       <c r="J5" s="1">
-        <v>0.19</v>
+        <v>0.33</v>
       </c>
       <c r="K5" s="1">
-        <v>0.19</v>
+        <v>0.33</v>
       </c>
       <c r="L5" s="1">
-        <v>0.19</v>
+        <v>0.33</v>
       </c>
       <c r="M5" s="1">
-        <v>0.19</v>
+        <v>0.33</v>
       </c>
       <c r="N5" s="1">
-        <v>0.19</v>
+        <v>0.33</v>
       </c>
       <c r="O5" s="1">
-        <v>0.19</v>
+        <v>0.33</v>
       </c>
       <c r="P5" s="1">
-        <v>0.19</v>
+        <v>0.48</v>
       </c>
       <c r="Q5" s="1">
-        <v>0.19</v>
+        <v>0.36</v>
       </c>
       <c r="R5" s="1">
-        <v>0.19</v>
+        <v>0.25</v>
       </c>
       <c r="S5" s="1">
-        <v>0.19</v>
+        <v>0.25</v>
       </c>
       <c r="T5" s="1">
-        <v>0.19</v>
+        <v>0.25</v>
       </c>
       <c r="U5" s="1">
-        <v>0.19</v>
+        <v>0.25</v>
       </c>
       <c r="V5" s="1">
-        <v>0.19</v>
+        <v>0.25</v>
       </c>
       <c r="W5" s="1">
-        <v>0.19</v>
+        <v>0.25</v>
       </c>
       <c r="X5" s="1">
-        <v>0.19</v>
+        <v>0.25</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.19</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="Z5" s="1">
-        <v>0.19</v>
+        <v>0.3</v>
       </c>
       <c r="AA5" s="1">
-        <v>0.19</v>
+        <v>0.32</v>
       </c>
       <c r="AB5" s="1">
-        <v>0.19</v>
+        <v>0.33</v>
       </c>
       <c r="AC5" s="1">
-        <v>0.19</v>
+        <v>0.33</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.19</v>
+        <v>0.33</v>
       </c>
       <c r="AE5" s="1">
-        <v>0.19</v>
+        <v>0.33</v>
       </c>
       <c r="AF5" s="1">
-        <v>0.19</v>
+        <v>0.33</v>
       </c>
       <c r="AG5" s="1">
-        <v>0.19</v>
+        <v>0.33</v>
       </c>
       <c r="AH5" s="1">
-        <v>0.19</v>
+        <v>0.33</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.19</v>
+        <v>0.33</v>
       </c>
       <c r="AJ5" s="1">
-        <v>0.19</v>
+        <v>0.33</v>
       </c>
       <c r="AK5" s="1">
-        <v>0.19</v>
+        <v>0.33</v>
       </c>
       <c r="AL5" s="1">
-        <v>0.19</v>
+        <v>0.33</v>
       </c>
       <c r="AM5" s="1">
-        <v>0.19</v>
+        <v>0.33</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.19</v>
+        <v>0.33</v>
       </c>
       <c r="AO5" s="1">
-        <v>0.19</v>
+        <v>0.33</v>
       </c>
       <c r="AP5" s="1">
-        <v>0.19</v>
+        <v>0.33</v>
       </c>
       <c r="AQ5" s="1">
-        <v>0.19</v>
+        <v>0.33</v>
       </c>
       <c r="AR5" s="1">
-        <v>0.19</v>
+        <v>0.33</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.19</v>
+        <v>0.33</v>
       </c>
       <c r="AT5" s="1">
-        <v>0.19</v>
+        <v>0.33</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1496,7 +1498,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1636,7 +1638,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1776,7 +1778,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1916,7 +1918,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2056,7 +2058,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2196,7 +2198,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2336,7 +2338,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2486,16 +2488,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E8E658C-58A0-3A4D-95A5-39A2D91B45AB}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/projects/test_building/input/Scenario_EnergyCarrier_Price_TaxRate.xlsx
+++ b/projects/test_building/input/Scenario_EnergyCarrier_Price_TaxRate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="765" windowWidth="30240" windowHeight="17385" activeTab="1"/>
+    <workbookView xWindow="975" yWindow="765" windowWidth="30240" windowHeight="17385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -645,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2:AT2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,130 +812,130 @@
         <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>0.8</v>
+        <v>0.19</v>
       </c>
       <c r="F2" s="1">
-        <v>0.8</v>
+        <v>0.19</v>
       </c>
       <c r="G2" s="1">
-        <v>0.8</v>
+        <v>0.19</v>
       </c>
       <c r="H2" s="1">
-        <v>0.8</v>
+        <v>0.19</v>
       </c>
       <c r="I2" s="1">
-        <v>1.1444364539202254</v>
+        <v>0.19</v>
       </c>
       <c r="J2" s="1">
-        <v>1.1356409978754136</v>
+        <v>0.19</v>
       </c>
       <c r="K2" s="1">
-        <v>1.2133853622976085</v>
+        <v>0.19</v>
       </c>
       <c r="L2" s="1">
-        <v>1.2604630607229534</v>
+        <v>0.19</v>
       </c>
       <c r="M2" s="1">
-        <v>1.2585824851147556</v>
+        <v>0.19</v>
       </c>
       <c r="N2" s="1">
-        <v>1.274859304265954</v>
+        <v>0.19</v>
       </c>
       <c r="O2" s="1">
-        <v>1.2408626260781042</v>
+        <v>0.19</v>
       </c>
       <c r="P2" s="1">
-        <v>1.184444107475227</v>
+        <v>0.19</v>
       </c>
       <c r="Q2" s="1">
-        <v>0.58813774606029012</v>
+        <v>0.19</v>
       </c>
       <c r="R2" s="1">
-        <v>0.40111741786297822</v>
+        <v>0.19</v>
       </c>
       <c r="S2" s="1">
-        <v>0.4</v>
+        <v>0.19</v>
       </c>
       <c r="T2" s="1">
-        <v>0.42</v>
+        <v>0.19</v>
       </c>
       <c r="U2" s="1">
-        <v>0.45</v>
+        <v>0.19</v>
       </c>
       <c r="V2" s="1">
-        <v>0.48</v>
+        <v>0.19</v>
       </c>
       <c r="W2" s="1">
-        <v>0.5</v>
+        <v>0.19</v>
       </c>
       <c r="X2" s="1">
-        <v>0.55000000000000004</v>
+        <v>0.19</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.6</v>
+        <v>0.19</v>
       </c>
       <c r="Z2" s="1">
-        <v>0.7</v>
+        <v>0.19</v>
       </c>
       <c r="AA2" s="1">
-        <v>0.7</v>
+        <v>0.19</v>
       </c>
       <c r="AB2" s="1">
-        <v>0.7</v>
+        <v>0.19</v>
       </c>
       <c r="AC2" s="1">
-        <v>0.7</v>
+        <v>0.19</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.7</v>
+        <v>0.19</v>
       </c>
       <c r="AE2" s="1">
-        <v>0.7</v>
+        <v>0.19</v>
       </c>
       <c r="AF2" s="1">
-        <v>0.7</v>
+        <v>0.19</v>
       </c>
       <c r="AG2" s="1">
-        <v>0.7</v>
+        <v>0.19</v>
       </c>
       <c r="AH2" s="1">
-        <v>0.7</v>
+        <v>0.19</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.7</v>
+        <v>0.19</v>
       </c>
       <c r="AJ2" s="1">
-        <v>0.7</v>
+        <v>0.19</v>
       </c>
       <c r="AK2" s="1">
-        <v>0.7</v>
+        <v>0.19</v>
       </c>
       <c r="AL2" s="1">
-        <v>0.7</v>
+        <v>0.19</v>
       </c>
       <c r="AM2" s="1">
-        <v>0.7</v>
+        <v>0.19</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.7</v>
+        <v>0.19</v>
       </c>
       <c r="AO2" s="1">
-        <v>0.7</v>
+        <v>0.19</v>
       </c>
       <c r="AP2" s="1">
-        <v>0.7</v>
+        <v>0.19</v>
       </c>
       <c r="AQ2" s="1">
-        <v>0.7</v>
+        <v>0.19</v>
       </c>
       <c r="AR2" s="1">
-        <v>0.7</v>
+        <v>0.19</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.7</v>
+        <v>0.19</v>
       </c>
       <c r="AT2" s="1">
-        <v>0.7</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
@@ -1232,130 +1232,130 @@
         <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>0.33</v>
+        <v>0.19</v>
       </c>
       <c r="F5" s="1">
-        <v>0.33</v>
+        <v>0.19</v>
       </c>
       <c r="G5" s="1">
-        <v>0.33</v>
+        <v>0.19</v>
       </c>
       <c r="H5" s="1">
-        <v>0.33</v>
+        <v>0.19</v>
       </c>
       <c r="I5" s="1">
-        <v>0.33</v>
+        <v>0.19</v>
       </c>
       <c r="J5" s="1">
-        <v>0.33</v>
+        <v>0.19</v>
       </c>
       <c r="K5" s="1">
-        <v>0.33</v>
+        <v>0.19</v>
       </c>
       <c r="L5" s="1">
-        <v>0.33</v>
+        <v>0.19</v>
       </c>
       <c r="M5" s="1">
-        <v>0.33</v>
+        <v>0.19</v>
       </c>
       <c r="N5" s="1">
-        <v>0.33</v>
+        <v>0.19</v>
       </c>
       <c r="O5" s="1">
-        <v>0.33</v>
+        <v>0.19</v>
       </c>
       <c r="P5" s="1">
-        <v>0.48</v>
+        <v>0.19</v>
       </c>
       <c r="Q5" s="1">
-        <v>0.36</v>
+        <v>0.19</v>
       </c>
       <c r="R5" s="1">
-        <v>0.25</v>
+        <v>0.19</v>
       </c>
       <c r="S5" s="1">
-        <v>0.25</v>
+        <v>0.19</v>
       </c>
       <c r="T5" s="1">
-        <v>0.25</v>
+        <v>0.19</v>
       </c>
       <c r="U5" s="1">
-        <v>0.25</v>
+        <v>0.19</v>
       </c>
       <c r="V5" s="1">
-        <v>0.25</v>
+        <v>0.19</v>
       </c>
       <c r="W5" s="1">
-        <v>0.25</v>
+        <v>0.19</v>
       </c>
       <c r="X5" s="1">
-        <v>0.25</v>
+        <v>0.19</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.28000000000000003</v>
+        <v>0.19</v>
       </c>
       <c r="Z5" s="1">
-        <v>0.3</v>
+        <v>0.19</v>
       </c>
       <c r="AA5" s="1">
-        <v>0.32</v>
+        <v>0.19</v>
       </c>
       <c r="AB5" s="1">
-        <v>0.33</v>
+        <v>0.19</v>
       </c>
       <c r="AC5" s="1">
-        <v>0.33</v>
+        <v>0.19</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.33</v>
+        <v>0.19</v>
       </c>
       <c r="AE5" s="1">
-        <v>0.33</v>
+        <v>0.19</v>
       </c>
       <c r="AF5" s="1">
-        <v>0.33</v>
+        <v>0.19</v>
       </c>
       <c r="AG5" s="1">
-        <v>0.33</v>
+        <v>0.19</v>
       </c>
       <c r="AH5" s="1">
-        <v>0.33</v>
+        <v>0.19</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.33</v>
+        <v>0.19</v>
       </c>
       <c r="AJ5" s="1">
-        <v>0.33</v>
+        <v>0.19</v>
       </c>
       <c r="AK5" s="1">
-        <v>0.33</v>
+        <v>0.19</v>
       </c>
       <c r="AL5" s="1">
-        <v>0.33</v>
+        <v>0.19</v>
       </c>
       <c r="AM5" s="1">
-        <v>0.33</v>
+        <v>0.19</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.33</v>
+        <v>0.19</v>
       </c>
       <c r="AO5" s="1">
-        <v>0.33</v>
+        <v>0.19</v>
       </c>
       <c r="AP5" s="1">
-        <v>0.33</v>
+        <v>0.19</v>
       </c>
       <c r="AQ5" s="1">
-        <v>0.33</v>
+        <v>0.19</v>
       </c>
       <c r="AR5" s="1">
-        <v>0.33</v>
+        <v>0.19</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.33</v>
+        <v>0.19</v>
       </c>
       <c r="AT5" s="1">
-        <v>0.33</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.25">
@@ -2491,7 +2491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/projects/test_building/input/Scenario_EnergyCarrier_Price_TaxRate.xlsx
+++ b/projects/test_building/input/Scenario_EnergyCarrier_Price_TaxRate.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>id_energy_carrier</t>
   </si>
@@ -161,9 +161,6 @@
   </si>
   <si>
     <t>2051</t>
-  </si>
-  <si>
-    <t>tax rates of electricity and gas are adjusted to reflect the end-consumer price when applied to wholesale prices</t>
   </si>
 </sst>
 </file>
@@ -326,8 +323,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:AT13" totalsRowShown="0">
-  <autoFilter ref="A1:AT13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:AT49" totalsRowShown="0">
+  <autoFilter ref="A1:AT49"/>
   <tableColumns count="46">
     <tableColumn id="1" name="id_scenario"/>
     <tableColumn id="2" name="id_region"/>
@@ -643,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT13"/>
+  <dimension ref="A1:AT49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2478,6 +2475,5046 @@
         <v>0.19</v>
       </c>
     </row>
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT14" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT15" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT16" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT17" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT18" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>12</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT19" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>13</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT20" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>10</v>
+      </c>
+      <c r="B21">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>14</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT21" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>15</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT22" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>10</v>
+      </c>
+      <c r="B23">
+        <v>9</v>
+      </c>
+      <c r="C23">
+        <v>19</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT23" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <v>9</v>
+      </c>
+      <c r="C24">
+        <v>25</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT24" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>10</v>
+      </c>
+      <c r="B25">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <v>26</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT25" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>20</v>
+      </c>
+      <c r="B26">
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT26" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>20</v>
+      </c>
+      <c r="B27">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT27" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>20</v>
+      </c>
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT28" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>20</v>
+      </c>
+      <c r="B29">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT29" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>20</v>
+      </c>
+      <c r="B30">
+        <v>9</v>
+      </c>
+      <c r="C30">
+        <v>8</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT30" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>20</v>
+      </c>
+      <c r="B31">
+        <v>9</v>
+      </c>
+      <c r="C31">
+        <v>12</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT31" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>20</v>
+      </c>
+      <c r="B32">
+        <v>9</v>
+      </c>
+      <c r="C32">
+        <v>13</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT32" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>20</v>
+      </c>
+      <c r="B33">
+        <v>9</v>
+      </c>
+      <c r="C33">
+        <v>14</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT33" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>20</v>
+      </c>
+      <c r="B34">
+        <v>9</v>
+      </c>
+      <c r="C34">
+        <v>15</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT34" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>20</v>
+      </c>
+      <c r="B35">
+        <v>9</v>
+      </c>
+      <c r="C35">
+        <v>19</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT35" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>20</v>
+      </c>
+      <c r="B36">
+        <v>9</v>
+      </c>
+      <c r="C36">
+        <v>25</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT36" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>20</v>
+      </c>
+      <c r="B37">
+        <v>9</v>
+      </c>
+      <c r="C37">
+        <v>26</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT37" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>30</v>
+      </c>
+      <c r="B38">
+        <v>9</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT38" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>30</v>
+      </c>
+      <c r="B39">
+        <v>9</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT39" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>30</v>
+      </c>
+      <c r="B40">
+        <v>9</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT40" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>30</v>
+      </c>
+      <c r="B41">
+        <v>9</v>
+      </c>
+      <c r="C41">
+        <v>6</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT41" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>30</v>
+      </c>
+      <c r="B42">
+        <v>9</v>
+      </c>
+      <c r="C42">
+        <v>8</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT42" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>30</v>
+      </c>
+      <c r="B43">
+        <v>9</v>
+      </c>
+      <c r="C43">
+        <v>12</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT43" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>30</v>
+      </c>
+      <c r="B44">
+        <v>9</v>
+      </c>
+      <c r="C44">
+        <v>13</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT44" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>30</v>
+      </c>
+      <c r="B45">
+        <v>9</v>
+      </c>
+      <c r="C45">
+        <v>14</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT45" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>30</v>
+      </c>
+      <c r="B46">
+        <v>9</v>
+      </c>
+      <c r="C46">
+        <v>15</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT46" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>30</v>
+      </c>
+      <c r="B47">
+        <v>9</v>
+      </c>
+      <c r="C47">
+        <v>19</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT47" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>30</v>
+      </c>
+      <c r="B48">
+        <v>9</v>
+      </c>
+      <c r="C48">
+        <v>25</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT48" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>30</v>
+      </c>
+      <c r="B49">
+        <v>9</v>
+      </c>
+      <c r="C49">
+        <v>26</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT49" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2489,10 +7526,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2502,11 +7539,6 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>47</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/projects/test_building/input/Scenario_EnergyCarrier_Price_TaxRate.xlsx
+++ b/projects/test_building/input/Scenario_EnergyCarrier_Price_TaxRate.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="770" windowWidth="30240" windowHeight="17390"/>
+    <workbookView xWindow="975" yWindow="765" windowWidth="30240" windowHeight="17385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="note" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>id_energy_carrier</t>
   </si>
@@ -154,6 +155,9 @@
   </si>
   <si>
     <t>2018</t>
+  </si>
+  <si>
+    <t>note: the values from 2010 to 2018 are copied from 2019 to hold the place</t>
   </si>
   <si>
     <t>2051</t>
@@ -319,8 +323,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:AT13" totalsRowShown="0">
-  <autoFilter ref="A1:AT13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:AT49" totalsRowShown="0">
+  <autoFilter ref="A1:AT49"/>
   <tableColumns count="46">
     <tableColumn id="1" name="id_scenario"/>
     <tableColumn id="2" name="id_region"/>
@@ -636,22 +640,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT13"/>
+  <dimension ref="A1:AT49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:A49"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.26953125" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" customWidth="1"/>
-    <col min="3" max="3" width="18.7265625" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="13" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -788,10 +792,10 @@
         <v>32</v>
       </c>
       <c r="AT1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -931,7 +935,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1071,7 +1075,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1211,7 +1215,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1351,7 +1355,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1491,7 +1495,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1631,7 +1635,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1771,7 +1775,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1911,7 +1915,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2051,7 +2055,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2191,7 +2195,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2331,7 +2335,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2468,6 +2472,5046 @@
         <v>0.19</v>
       </c>
       <c r="AT13" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS14" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT14" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS15" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT15" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS16" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT16" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS17" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT17" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT18" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>12</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS19" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT19" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>13</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS20" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT20" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>10</v>
+      </c>
+      <c r="B21">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>14</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS21" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT21" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>15</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT22" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>10</v>
+      </c>
+      <c r="B23">
+        <v>9</v>
+      </c>
+      <c r="C23">
+        <v>19</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS23" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT23" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <v>9</v>
+      </c>
+      <c r="C24">
+        <v>25</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS24" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT24" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>10</v>
+      </c>
+      <c r="B25">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <v>26</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS25" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT25" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>20</v>
+      </c>
+      <c r="B26">
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT26" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>20</v>
+      </c>
+      <c r="B27">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS27" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT27" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>20</v>
+      </c>
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS28" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT28" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>20</v>
+      </c>
+      <c r="B29">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS29" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT29" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>20</v>
+      </c>
+      <c r="B30">
+        <v>9</v>
+      </c>
+      <c r="C30">
+        <v>8</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS30" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT30" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>20</v>
+      </c>
+      <c r="B31">
+        <v>9</v>
+      </c>
+      <c r="C31">
+        <v>12</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS31" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT31" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>20</v>
+      </c>
+      <c r="B32">
+        <v>9</v>
+      </c>
+      <c r="C32">
+        <v>13</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS32" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT32" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>20</v>
+      </c>
+      <c r="B33">
+        <v>9</v>
+      </c>
+      <c r="C33">
+        <v>14</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS33" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT33" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>20</v>
+      </c>
+      <c r="B34">
+        <v>9</v>
+      </c>
+      <c r="C34">
+        <v>15</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS34" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT34" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>20</v>
+      </c>
+      <c r="B35">
+        <v>9</v>
+      </c>
+      <c r="C35">
+        <v>19</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS35" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT35" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>20</v>
+      </c>
+      <c r="B36">
+        <v>9</v>
+      </c>
+      <c r="C36">
+        <v>25</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS36" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT36" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>20</v>
+      </c>
+      <c r="B37">
+        <v>9</v>
+      </c>
+      <c r="C37">
+        <v>26</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS37" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT37" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>30</v>
+      </c>
+      <c r="B38">
+        <v>9</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS38" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT38" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>30</v>
+      </c>
+      <c r="B39">
+        <v>9</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS39" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT39" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>30</v>
+      </c>
+      <c r="B40">
+        <v>9</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS40" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT40" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>30</v>
+      </c>
+      <c r="B41">
+        <v>9</v>
+      </c>
+      <c r="C41">
+        <v>6</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS41" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT41" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>30</v>
+      </c>
+      <c r="B42">
+        <v>9</v>
+      </c>
+      <c r="C42">
+        <v>8</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS42" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT42" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>30</v>
+      </c>
+      <c r="B43">
+        <v>9</v>
+      </c>
+      <c r="C43">
+        <v>12</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS43" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT43" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>30</v>
+      </c>
+      <c r="B44">
+        <v>9</v>
+      </c>
+      <c r="C44">
+        <v>13</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS44" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT44" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>30</v>
+      </c>
+      <c r="B45">
+        <v>9</v>
+      </c>
+      <c r="C45">
+        <v>14</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS45" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT45" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>30</v>
+      </c>
+      <c r="B46">
+        <v>9</v>
+      </c>
+      <c r="C46">
+        <v>15</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS46" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT46" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>30</v>
+      </c>
+      <c r="B47">
+        <v>9</v>
+      </c>
+      <c r="C47">
+        <v>19</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS47" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT47" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>30</v>
+      </c>
+      <c r="B48">
+        <v>9</v>
+      </c>
+      <c r="C48">
+        <v>25</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS48" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT48" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>30</v>
+      </c>
+      <c r="B49">
+        <v>9</v>
+      </c>
+      <c r="C49">
+        <v>26</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="J49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="K49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="L49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="M49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="N49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="O49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="P49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="S49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="T49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="U49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="V49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="W49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="X49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Y49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="Z49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AA49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AC49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AD49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AF49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AG49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AI49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AK49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AL49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AM49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AN49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AO49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AP49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AQ49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AR49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AS49" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AT49" s="1">
         <v>0.19</v>
       </c>
     </row>
@@ -2478,4 +7522,24 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>